--- a/Tarjeta BBVA.xlsx
+++ b/Tarjeta BBVA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genes\Documents\MELINA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genes\Documents\MELINA\Tarjetas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68209517-7C37-4CDA-85F8-2ACF2C71A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA3210-87F7-46DD-B9B2-01D05044ADD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{15D1DB5D-C6A1-4225-B59C-785E0FD81559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{15D1DB5D-C6A1-4225-B59C-785E0FD81559}"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="101">
   <si>
     <t>Tarjeta de crédito</t>
   </si>
@@ -314,6 +314,24 @@
   </si>
   <si>
     <t>TOTAL CIERRE 10/07</t>
+  </si>
+  <si>
+    <t>PAGADO 19/06</t>
+  </si>
+  <si>
+    <t>Color Pastel</t>
+  </si>
+  <si>
+    <t>3 de 3</t>
+  </si>
+  <si>
+    <t>Lápices</t>
+  </si>
+  <si>
+    <t>Super mami</t>
+  </si>
+  <si>
+    <t>Pantalon papa</t>
   </si>
 </sst>
 </file>
@@ -3826,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4DBFA5-487B-477E-93D7-430DFF9CAE34}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4362,7 +4380,9 @@
     <row r="28" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="56" t="s">
+        <v>95</v>
+      </c>
       <c r="E28" s="57"/>
       <c r="F28" s="58"/>
       <c r="G28" s="40"/>
@@ -4384,8 +4404,8 @@
         <v>18</v>
       </c>
       <c r="C30" s="45">
-        <f>SUM(333,F11,F12,F13,F14-3500,F20,F21,F15,F22)</f>
-        <v>8893.49</v>
+        <f>SUM(333,F12,F13,F14-3500,F20,F21,F15,F22)</f>
+        <v>8330.85</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="3"/>
@@ -4462,9 +4482,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FB8B73-60B7-4947-BC7D-9A352A1E072F}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -4577,10 +4597,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="12">
-        <v>799</v>
+        <v>900</v>
       </c>
       <c r="F9" s="13">
-        <v>799</v>
+        <v>900</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
@@ -4661,7 +4681,7 @@
         <v>605</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>88</v>
@@ -4687,7 +4707,7 @@
         <v>240</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>93</v>
@@ -4698,181 +4718,253 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
+        <v>44295</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="50">
+        <v>562.63</v>
+      </c>
+      <c r="F14" s="51">
+        <v>563.63</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
+        <v>44366</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="50">
+        <v>2990</v>
+      </c>
+      <c r="F15" s="51">
+        <v>2990</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>44366</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="50">
+        <v>999.9</v>
+      </c>
+      <c r="F16" s="51">
+        <v>999.9</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
         <v>44407</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E17" s="50">
         <v>1352</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F17" s="51">
         <v>1352</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G17" s="23">
         <v>1</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I17" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="str">
-        <f>IF(AND(E15="",F15=""),"",I11+E15-F15)</f>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25" t="str">
+        <f>IF(AND(E18="",F18=""),"",I11+E18-F18)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29">
-        <f>SUM(E9:E14)</f>
-        <v>7309.35</v>
-      </c>
-      <c r="F16" s="30">
-        <f>SUM(F9:F14)</f>
-        <v>3804.35</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33">
-        <f>SUM(I9:I15)</f>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29">
+        <f>SUM(E9:E17)</f>
+        <v>11962.88</v>
+      </c>
+      <c r="F19" s="30">
+        <f>SUM(F9:F17)</f>
+        <v>8458.8799999999992</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33">
+        <f>SUM(I9:I18)</f>
         <v>1268.3499999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="38" t="str">
-        <f t="shared" ref="I17" si="0">IF(AND(E17="",F17=""),"",I16+E17-F17)</f>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="38" t="str">
+        <f t="shared" ref="I20" si="0">IF(AND(E20="",F20=""),"",I19+E20-F20)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="45">
-        <f>SUM(333,F11,F13)</f>
-        <v>996.35</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="47"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="17"/>
       <c r="I21" s="41"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+    <row r="22" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="40"/>
       <c r="H22" s="17"/>
       <c r="I22" s="41"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="40"/>
       <c r="H23" s="17"/>
       <c r="I23" s="41"/>
     </row>
     <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="49">
-        <f>SUM(333,F10,F12,F14)</f>
-        <v>2675</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="B24" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="45">
+        <f>SUM(333,F11,F13)</f>
+        <v>996.35</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="47"/>
       <c r="H24" s="17"/>
       <c r="I24" s="41"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="40"/>
       <c r="H25" s="17"/>
       <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="49">
+        <f>SUM(333,F10,F12,F17,F14,F15/2,F16)</f>
+        <v>5733.53</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D22:F22"/>
   </mergeCells>
-  <conditionalFormatting sqref="I17:I25">
+  <conditionalFormatting sqref="I20:I28">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(I18="")=TRUE</formula>
+      <formula>AND(I21="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I25">
+  <conditionalFormatting sqref="I20:I28">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(I19="")=TRUE</formula>
+      <formula>AND(I22="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tarjeta BBVA.xlsx
+++ b/Tarjeta BBVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genes\Documents\MELINA\Tarjetas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA3210-87F7-46DD-B9B2-01D05044ADD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792F175-D092-4B2F-AFE4-6DB1FE9D7BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{15D1DB5D-C6A1-4225-B59C-785E0FD81559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{15D1DB5D-C6A1-4225-B59C-785E0FD81559}"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MAYO" sheetId="3" r:id="rId3"/>
     <sheet name="JUNIO" sheetId="4" r:id="rId4"/>
     <sheet name="JULIO" sheetId="5" r:id="rId5"/>
+    <sheet name="AGOSTO" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="116">
   <si>
     <t>Tarjeta de crédito</t>
   </si>
   <si>
-    <t>NARANJA- NARANJA VISA</t>
-  </si>
-  <si>
     <t>Gastos de tarjeta de crédito</t>
   </si>
   <si>
@@ -332,6 +330,54 @@
   </si>
   <si>
     <t>Pantalon papa</t>
+  </si>
+  <si>
+    <t>BBVA-NARANJA AZUL</t>
+  </si>
+  <si>
+    <t>3 de 6</t>
+  </si>
+  <si>
+    <t>Almohada</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>Lampara</t>
+  </si>
+  <si>
+    <t>Mercadolibre</t>
+  </si>
+  <si>
+    <t>paramount+</t>
+  </si>
+  <si>
+    <t>Empanadas</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Mermelada</t>
+  </si>
+  <si>
+    <t>Grandiet</t>
+  </si>
+  <si>
+    <t>Libro Meli</t>
+  </si>
+  <si>
+    <t>Mundo del libro</t>
+  </si>
+  <si>
+    <t>Cortinas</t>
+  </si>
+  <si>
+    <t>1 de 3 (Z)</t>
+  </si>
+  <si>
+    <t>Los angeles</t>
   </si>
 </sst>
 </file>
@@ -791,7 +837,21 @@
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1755,6 +1815,182 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1743074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>96725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>790574</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>403112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1D1D4C-227D-4605-99A4-F19FDA214A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9448799" y="96725"/>
+          <a:ext cx="790575" cy="306387"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" charset="0"/>
+              <a:ea typeface="Calibri" charset="0"/>
+              <a:cs typeface="Calibri" charset="0"/>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" charset="0"/>
+              <a:ea typeface="Calibri" charset="0"/>
+              <a:cs typeface="Calibri" charset="0"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" charset="0"/>
+              <a:ea typeface="Calibri" charset="0"/>
+              <a:cs typeface="Calibri" charset="0"/>
+            </a:rPr>
+            <a:t>AYUDA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>443593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B52CCE-BC63-4C8F-B6E7-60E9A4F58473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771774" y="113393"/>
+          <a:ext cx="6038850" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri Light" charset="0"/>
+              <a:ea typeface="Calibri Light" charset="0"/>
+              <a:cs typeface="Calibri Light" charset="0"/>
+            </a:rPr>
+            <a:t>Gastos con tarjeta de crédito</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2054,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04582E16-F551-4A24-A55A-4B9C275469E8}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2334,7 @@
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="4" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2119,7 +2355,7 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
@@ -2132,28 +2368,28 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2161,10 +2397,10 @@
         <v>43900</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="12">
         <v>16994.16</v>
@@ -2173,10 +2409,10 @@
         <v>1416.18</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -2187,10 +2423,10 @@
         <v>44155</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="12">
         <v>6665.34</v>
@@ -2199,10 +2435,10 @@
         <v>1110.8900000000001</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="16">
         <v>1110.8900000000001</v>
@@ -2213,10 +2449,10 @@
         <v>44239</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="E11" s="12">
         <v>12998.95</v>
@@ -2228,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -2239,10 +2475,10 @@
         <v>44243</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="12">
         <v>1000</v>
@@ -2254,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -2265,10 +2501,10 @@
         <v>44246</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="12">
         <v>799</v>
@@ -2280,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -2291,10 +2527,10 @@
         <v>44251</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="12">
         <v>385</v>
@@ -2306,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -2317,10 +2553,10 @@
         <v>44251</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="12">
         <v>377.51</v>
@@ -2332,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -2343,10 +2579,10 @@
         <v>44251</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12">
         <v>553</v>
@@ -2358,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="16"/>
     </row>
@@ -2367,10 +2603,10 @@
         <v>44282</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="12">
         <v>1060</v>
@@ -2382,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="16">
         <v>0</v>
@@ -2393,10 +2629,10 @@
         <v>44276</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="50">
         <v>1567.89</v>
@@ -2408,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="25">
         <v>0</v>
@@ -2419,10 +2655,10 @@
         <v>44276</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="50">
         <v>619.61</v>
@@ -2432,7 +2668,7 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="25"/>
     </row>
@@ -2451,7 +2687,7 @@
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
@@ -2497,7 +2733,7 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="57"/>
       <c r="F24" s="58"/>
@@ -2519,7 +2755,7 @@
     </row>
     <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="45">
         <f>SUM(F11,F12,260,F16,F17)</f>
@@ -2554,7 +2790,7 @@
     </row>
     <row r="29" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="49">
         <f>SUM(F9,F10,F13-260,F14,F16,F15,F18,F19)</f>
@@ -2584,12 +2820,12 @@
     <mergeCell ref="D24:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="I22:I30">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND(I23="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I30">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(I24="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2603,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255C98D1-CB6E-4453-A8E2-74CBED8F4E85}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2883,7 @@
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="4" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2668,7 +2904,7 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
@@ -2681,28 +2917,28 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2710,10 +2946,10 @@
         <v>44155</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="12">
         <v>6665.34</v>
@@ -2722,10 +2958,10 @@
         <v>1110.8900000000001</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="16">
         <v>1110.8900000000001</v>
@@ -2736,10 +2972,10 @@
         <v>409511</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="12">
         <v>2450</v>
@@ -2751,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -2762,10 +2998,10 @@
         <v>44272</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="12">
         <v>1350</v>
@@ -2777,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -2788,10 +3024,10 @@
         <v>44274</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="12">
         <v>1500</v>
@@ -2803,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -2814,10 +3050,10 @@
         <v>44274</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="12">
         <v>799</v>
@@ -2829,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -2840,10 +3076,10 @@
         <v>44279</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="12">
         <v>385</v>
@@ -2855,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -2866,10 +3102,10 @@
         <v>44279</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="12">
         <v>279</v>
@@ -2881,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="16"/>
     </row>
@@ -2890,10 +3126,10 @@
         <v>44284</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="12">
         <v>423.35</v>
@@ -2902,10 +3138,10 @@
         <v>423.35</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="16">
         <v>423.35</v>
@@ -2916,10 +3152,10 @@
         <v>44285</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="50">
         <v>1229.8800000000001</v>
@@ -2931,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="25">
         <v>0</v>
@@ -2942,10 +3178,10 @@
         <v>44287</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="E18" s="50">
         <v>630</v>
@@ -2957,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="25"/>
     </row>
@@ -2966,10 +3202,10 @@
         <v>44287</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="E19" s="50">
         <v>1599</v>
@@ -2981,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="25"/>
     </row>
@@ -2990,10 +3226,10 @@
         <v>44288</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="50">
         <v>480</v>
@@ -3005,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" s="25"/>
     </row>
@@ -3014,10 +3250,10 @@
         <v>44289</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="50">
         <v>916.27</v>
@@ -3029,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="25"/>
     </row>
@@ -3038,10 +3274,10 @@
         <v>44289</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="50">
         <v>794</v>
@@ -3050,10 +3286,10 @@
         <v>397</v>
       </c>
       <c r="G22" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="I22" s="25"/>
     </row>
@@ -3062,10 +3298,10 @@
         <v>44290</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="50">
         <v>1500</v>
@@ -3077,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="25"/>
     </row>
@@ -3086,10 +3322,10 @@
         <v>44294</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="50">
         <v>1474.34</v>
@@ -3098,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="25">
         <v>1474.34</v>
@@ -3112,10 +3348,10 @@
         <v>44294</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="42">
         <v>771.22</v>
@@ -3129,7 +3365,7 @@
     </row>
     <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
@@ -3175,7 +3411,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -3195,7 +3431,7 @@
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B31" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="45">
         <f>SUM(F11,F12,F16,F20,F21,F22,F23)</f>
@@ -3203,7 +3439,7 @@
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="47"/>
@@ -3232,7 +3468,7 @@
     </row>
     <row r="34" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="49">
         <f>SUM(F10,F9,F13-260,F14,F15,F17,F18,F19,F24,F25)</f>
@@ -3262,12 +3498,12 @@
     <mergeCell ref="D29:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="I27:I35">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND(I28="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I35">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(I29="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3281,7 +3517,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,7 +3560,7 @@
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="4" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3345,7 +3581,7 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
@@ -3358,28 +3594,28 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3387,10 +3623,10 @@
         <v>44155</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="12">
         <v>6665.34</v>
@@ -3399,10 +3635,10 @@
         <v>1110.8900000000001</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -3413,10 +3649,10 @@
         <v>44295</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="12">
         <v>1687.91</v>
@@ -3425,10 +3661,10 @@
         <v>562.64</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="16">
         <v>562.64</v>
@@ -3439,10 +3675,10 @@
         <v>44335</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="12">
         <v>799</v>
@@ -3454,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -3465,10 +3701,10 @@
         <v>44340</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="12">
         <v>385</v>
@@ -3480,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -3491,10 +3727,10 @@
         <v>44284</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="12">
         <v>2540</v>
@@ -3503,10 +3739,10 @@
         <v>423.35</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="16">
         <v>423.35</v>
@@ -3517,10 +3753,10 @@
         <v>44346</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="50">
         <v>1229.8800000000001</v>
@@ -3532,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="25">
         <v>0</v>
@@ -3543,10 +3779,10 @@
         <v>44289</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="50">
         <v>794</v>
@@ -3555,10 +3791,10 @@
         <v>397</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="25"/>
     </row>
@@ -3567,10 +3803,10 @@
         <v>44298</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="50">
         <v>7430</v>
@@ -3582,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="25"/>
     </row>
@@ -3591,10 +3827,10 @@
         <v>44310</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="50">
         <v>1000</v>
@@ -3606,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="25"/>
     </row>
@@ -3615,10 +3851,10 @@
         <v>44303</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="50">
         <v>830</v>
@@ -3630,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="25"/>
     </row>
@@ -3639,10 +3875,10 @@
         <v>44318</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="50">
         <v>125</v>
@@ -3654,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="25"/>
     </row>
@@ -3663,10 +3899,10 @@
         <v>44337</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="50">
         <v>1474.74</v>
@@ -3675,10 +3911,10 @@
         <v>1474.74</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" s="25"/>
     </row>
@@ -3697,7 +3933,7 @@
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
@@ -3761,7 +3997,7 @@
     </row>
     <row r="27" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="45">
         <f>SUM(260,F13,F15,F17)+F16/3</f>
@@ -3796,7 +4032,7 @@
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="49">
         <f>SUM(F9,F10,260,F12,F14,F18)+F16/3</f>
@@ -3826,12 +4062,12 @@
     <mergeCell ref="D25:F25"/>
   </mergeCells>
   <conditionalFormatting sqref="I23:I31">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(I24="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I31">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND(I25="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3844,8 +4080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4DBFA5-487B-477E-93D7-430DFF9CAE34}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3888,14 +4124,14 @@
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="4" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3909,7 +4145,7 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
@@ -3922,28 +4158,28 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3951,10 +4187,10 @@
         <v>44366</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="12">
         <v>999</v>
@@ -3966,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -3977,10 +4213,10 @@
         <v>44371</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="12">
         <v>385</v>
@@ -3992,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -4003,10 +4239,10 @@
         <v>44295</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="12">
         <v>1687.91</v>
@@ -4015,10 +4251,10 @@
         <v>562.64</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="16">
         <v>562.64</v>
@@ -4029,10 +4265,10 @@
         <v>44284</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="12">
         <v>2540</v>
@@ -4041,10 +4277,10 @@
         <v>423.35</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="16">
         <v>423.35</v>
@@ -4055,10 +4291,10 @@
         <v>44325</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="50">
         <v>1500</v>
@@ -4070,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" s="25"/>
     </row>
@@ -4079,10 +4315,10 @@
         <v>44326</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="50">
         <v>5035.5</v>
@@ -4094,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="25"/>
     </row>
@@ -4103,10 +4339,10 @@
         <v>44327</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="50">
         <v>2190</v>
@@ -4118,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="25"/>
     </row>
@@ -4127,10 +4363,10 @@
         <v>44329</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="50">
         <v>3630</v>
@@ -4139,10 +4375,10 @@
         <v>605</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="25">
         <v>605</v>
@@ -4153,10 +4389,10 @@
         <v>44329</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="50">
         <v>309</v>
@@ -4168,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="25"/>
     </row>
@@ -4177,10 +4413,10 @@
         <v>44356</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="50">
         <v>1352</v>
@@ -4192,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="25">
         <v>0</v>
@@ -4203,10 +4439,10 @@
         <v>44330</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="50">
         <v>399</v>
@@ -4218,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="25"/>
     </row>
@@ -4227,10 +4463,10 @@
         <v>44334</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="50">
         <v>670</v>
@@ -4242,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="25"/>
     </row>
@@ -4251,10 +4487,10 @@
         <v>44334</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="50">
         <v>720</v>
@@ -4263,10 +4499,10 @@
         <v>240</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" s="25">
         <v>240</v>
@@ -4277,10 +4513,10 @@
         <v>44353</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="50">
         <v>1439</v>
@@ -4292,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" s="25"/>
     </row>
@@ -4301,10 +4537,10 @@
         <v>44276</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="50">
         <v>1594.89</v>
@@ -4316,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="25"/>
     </row>
@@ -4335,7 +4571,7 @@
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="28"/>
@@ -4381,7 +4617,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="58"/>
@@ -4401,7 +4637,7 @@
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B30" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="45">
         <f>SUM(333,F12,F13,F14-3500,F20,F21,F15,F22)</f>
@@ -4436,7 +4672,7 @@
     </row>
     <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="49">
         <f>SUM(260,F10,F18,F23,F11,F16,F14-1500,F19,F17)</f>
@@ -4466,12 +4702,12 @@
     <mergeCell ref="D28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="I26:I34">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(I27="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I34">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(I28="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4482,10 +4718,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FB8B73-60B7-4947-BC7D-9A352A1E072F}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4528,7 +4764,7 @@
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="4" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -4549,7 +4785,7 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
@@ -4562,28 +4798,28 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4591,10 +4827,10 @@
         <v>44396</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="12">
         <v>900</v>
@@ -4606,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -4617,10 +4853,10 @@
         <v>44401</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="12">
         <v>385</v>
@@ -4632,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -4643,10 +4879,10 @@
         <v>44284</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="12">
         <v>423.35</v>
@@ -4655,10 +4891,10 @@
         <v>423.35</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="16">
         <v>423.35</v>
@@ -4669,10 +4905,10 @@
         <v>44329</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="50">
         <v>3630</v>
@@ -4681,10 +4917,10 @@
         <v>605</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="25">
         <v>605</v>
@@ -4695,10 +4931,10 @@
         <v>44334</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="50">
         <v>720</v>
@@ -4707,10 +4943,10 @@
         <v>240</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="25">
         <v>240</v>
@@ -4721,10 +4957,10 @@
         <v>44295</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="50">
         <v>562.63</v>
@@ -4733,10 +4969,10 @@
         <v>563.63</v>
       </c>
       <c r="G14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="I14" s="25"/>
     </row>
@@ -4745,10 +4981,10 @@
         <v>44366</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="50">
         <v>2990</v>
@@ -4760,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I15" s="25"/>
     </row>
@@ -4769,10 +5005,10 @@
         <v>44366</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="50">
         <v>999.9</v>
@@ -4784,156 +5020,759 @@
         <v>1</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
-        <v>44407</v>
+        <v>44373</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="50">
+        <v>5394</v>
+      </c>
+      <c r="F17" s="51">
+        <v>899.95</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="25">
+        <v>899.95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>44375</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="50">
+        <v>2300</v>
+      </c>
+      <c r="F18" s="51">
+        <v>2300</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
+        <v>44376</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="50">
+        <v>890</v>
+      </c>
+      <c r="F19" s="51">
+        <v>890</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
+        <v>44377</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="50">
+        <v>230</v>
+      </c>
+      <c r="F20" s="51">
+        <v>230</v>
+      </c>
+      <c r="G20" s="23">
+        <v>1</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
+        <v>44377</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="50">
+        <v>1520</v>
+      </c>
+      <c r="F21" s="51">
+        <v>1520</v>
+      </c>
+      <c r="G21" s="23">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>35</v>
       </c>
+      <c r="I21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25" t="str">
+        <f>IF(AND(E22="",F22=""),"",I11+E22-F22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29">
+        <f>SUM(E9:E21)</f>
+        <v>20944.879999999997</v>
+      </c>
+      <c r="F23" s="30">
+        <f>SUM(F9:F21)</f>
+        <v>12946.829999999998</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33">
+        <f>SUM(I9:I22)</f>
+        <v>2168.3000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="38" t="str">
+        <f t="shared" ref="I24" si="0">IF(AND(E24="",F24=""),"",I23+E24-F24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="45">
+        <f>SUM(333,F11,F13,F16,F19)</f>
+        <v>2886.25</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="49">
+        <f>SUM(333,F10,F12,F21,F14,F15/2,F16,F17,F20)</f>
+        <v>7031.48</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="D26:F26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I24:I32">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(I25="")=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I32">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(I26="")=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E6A4FC-D811-4084-A70A-CA406BF5A4E8}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>44396</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12">
+        <v>900</v>
+      </c>
+      <c r="F9" s="13">
+        <v>900</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>44401</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12">
+        <v>385</v>
+      </c>
+      <c r="F10" s="13">
+        <v>385</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>44284</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="12">
+        <v>423.35</v>
+      </c>
+      <c r="F11" s="13">
+        <v>423.35</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="16">
+        <v>423.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
+        <v>44329</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="50">
+        <v>3630</v>
+      </c>
+      <c r="F12" s="51">
+        <v>605</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
+        <v>44334</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="50">
+        <v>720</v>
+      </c>
+      <c r="F13" s="51">
+        <v>240</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
+        <v>44377</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="50">
+        <v>1520</v>
+      </c>
+      <c r="F14" s="51">
+        <v>1520</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
+        <v>44373</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="50">
+        <v>5394</v>
+      </c>
+      <c r="F15" s="51">
+        <v>899.95</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="25">
+        <v>899.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>44384</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="50">
+        <v>468</v>
+      </c>
+      <c r="F16" s="51">
+        <v>468</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
+        <v>44390</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="E17" s="50">
-        <v>1352</v>
+        <v>1540</v>
       </c>
       <c r="F17" s="51">
-        <v>1352</v>
+        <v>1540</v>
       </c>
       <c r="G17" s="23">
         <v>1</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="str">
-        <f>IF(AND(E18="",F18=""),"",I11+E18-F18)</f>
+        <v>112</v>
+      </c>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>44390</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="50">
+        <v>3360</v>
+      </c>
+      <c r="F18" s="51">
+        <v>1200</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25" t="str">
+        <f>IF(AND(E19="",F19=""),"",I11+E19-F19)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29">
-        <f>SUM(E9:E17)</f>
-        <v>11962.88</v>
-      </c>
-      <c r="F19" s="30">
-        <f>SUM(F9:F17)</f>
-        <v>8458.8799999999992</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33">
-        <f>SUM(I9:I18)</f>
-        <v>1268.3499999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="38" t="str">
-        <f t="shared" ref="I20" si="0">IF(AND(E20="",F20=""),"",I19+E20-F20)</f>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29">
+        <f>SUM(E9:E18)</f>
+        <v>18340.349999999999</v>
+      </c>
+      <c r="F20" s="30">
+        <f>SUM(F9:F18)</f>
+        <v>8181.3</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33">
+        <f>SUM(I9:I19)</f>
+        <v>3368.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="38" t="str">
+        <f t="shared" ref="I21" si="0">IF(AND(E21="",F21=""),"",I20+E21-F21)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="41"/>
-    </row>
-    <row r="22" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="17"/>
       <c r="I22" s="41"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+    <row r="23" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="40"/>
       <c r="H23" s="17"/>
       <c r="I23" s="41"/>
     </row>
-    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="45">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="45">
         <f>SUM(333,F11,F13)</f>
         <v>996.35</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="40"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="17"/>
       <c r="I25" s="41"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="40"/>
       <c r="H26" s="17"/>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="49">
-        <f>SUM(333,F10,F12,F17,F14,F15/2,F16)</f>
-        <v>5733.53</v>
-      </c>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="17"/>
       <c r="E27" s="39"/>
       <c r="F27" s="40"/>
@@ -4941,9 +5780,14 @@
       <c r="H27" s="17"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+    <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="49">
+        <f>SUM(333,F10,F12,F15,F14,F16,F17)</f>
+        <v>5750.95</v>
+      </c>
       <c r="D28" s="17"/>
       <c r="E28" s="39"/>
       <c r="F28" s="40"/>
@@ -4951,20 +5795,30 @@
       <c r="H28" s="17"/>
       <c r="I28" s="41"/>
     </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
   </mergeCells>
-  <conditionalFormatting sqref="I20:I28">
+  <conditionalFormatting sqref="I21:I29">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(I21="")=TRUE</formula>
+      <formula>AND(I22="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I28">
+  <conditionalFormatting sqref="I21:I29">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(I22="")=TRUE</formula>
+      <formula>AND(I23="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tarjeta BBVA.xlsx
+++ b/Tarjeta BBVA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genes\Documents\MELINA\Tarjetas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792F175-D092-4B2F-AFE4-6DB1FE9D7BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F1167B-FA68-4872-BB83-5B7AFFC22894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{15D1DB5D-C6A1-4225-B59C-785E0FD81559}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="JUNIO" sheetId="4" r:id="rId4"/>
     <sheet name="JULIO" sheetId="5" r:id="rId5"/>
     <sheet name="AGOSTO" sheetId="7" r:id="rId6"/>
+    <sheet name="SEPTIEMBRE" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="138">
   <si>
     <t>Tarjeta de crédito</t>
   </si>
@@ -374,10 +375,76 @@
     <t>Cortinas</t>
   </si>
   <si>
-    <t>1 de 3 (Z)</t>
-  </si>
-  <si>
     <t>Los angeles</t>
+  </si>
+  <si>
+    <t>BBVA-TARJETA AZUL</t>
+  </si>
+  <si>
+    <t>Anillo</t>
+  </si>
+  <si>
+    <t>Funda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 de 3 </t>
+  </si>
+  <si>
+    <t>geo comunicaciones</t>
+  </si>
+  <si>
+    <t>Valento joyeria</t>
+  </si>
+  <si>
+    <t>Grido</t>
+  </si>
+  <si>
+    <t>empanada</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>Hule</t>
+  </si>
+  <si>
+    <t>Tiendas Chamme</t>
+  </si>
+  <si>
+    <t>Torta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torta </t>
+  </si>
+  <si>
+    <t>almohadones</t>
+  </si>
+  <si>
+    <t>Tienda de almohadones</t>
+  </si>
+  <si>
+    <t>Cine</t>
+  </si>
+  <si>
+    <t>Medialunas</t>
+  </si>
+  <si>
+    <t>Colectivo Papá</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Farmacia</t>
+  </si>
+  <si>
+    <t>Pagado el 15/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de 3 </t>
   </si>
 </sst>
 </file>
@@ -837,7 +904,21 @@
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1991,6 +2072,182 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1743074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>96725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>790574</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>403112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F790BD-4421-4E3A-90D8-D1AE3A5C949B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9448799" y="96725"/>
+          <a:ext cx="790575" cy="306387"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" charset="0"/>
+              <a:ea typeface="Calibri" charset="0"/>
+              <a:cs typeface="Calibri" charset="0"/>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" charset="0"/>
+              <a:ea typeface="Calibri" charset="0"/>
+              <a:cs typeface="Calibri" charset="0"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" charset="0"/>
+              <a:ea typeface="Calibri" charset="0"/>
+              <a:cs typeface="Calibri" charset="0"/>
+            </a:rPr>
+            <a:t>AYUDA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>443593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4548DFD-5C2D-4943-8B29-3654EA21AAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771774" y="113393"/>
+          <a:ext cx="6038850" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri Light" charset="0"/>
+              <a:ea typeface="Calibri Light" charset="0"/>
+              <a:cs typeface="Calibri Light" charset="0"/>
+            </a:rPr>
+            <a:t>Gastos con tarjeta de crédito</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2820,12 +3077,12 @@
     <mergeCell ref="D24:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="I22:I30">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(I23="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I30">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(I24="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3498,12 +3755,12 @@
     <mergeCell ref="D29:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="I27:I35">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND(I28="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I35">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(I29="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4062,12 +4319,12 @@
     <mergeCell ref="D25:F25"/>
   </mergeCells>
   <conditionalFormatting sqref="I23:I31">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND(I24="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I31">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(I25="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4702,12 +4959,12 @@
     <mergeCell ref="D28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="I26:I34">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(I27="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I34">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND(I28="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4720,8 +4977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FB8B73-60B7-4947-BC7D-9A352A1E072F}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5208,7 +5465,9 @@
     <row r="26" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="56"/>
+      <c r="D26" s="56" t="s">
+        <v>136</v>
+      </c>
       <c r="E26" s="57"/>
       <c r="F26" s="58"/>
       <c r="G26" s="40"/>
@@ -5292,12 +5551,12 @@
     <mergeCell ref="D26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="I24:I32">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(I25="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I32">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(I26="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5308,10 +5567,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E6A4FC-D811-4084-A70A-CA406BF5A4E8}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5354,7 +5613,7 @@
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -5423,10 +5682,10 @@
         <v>27</v>
       </c>
       <c r="E9" s="12">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="F9" s="13">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
@@ -5620,25 +5879,25 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E17" s="50">
-        <v>1540</v>
+        <v>650</v>
       </c>
       <c r="F17" s="51">
-        <v>1540</v>
+        <v>650</v>
       </c>
       <c r="G17" s="23">
         <v>1</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I17" s="25"/>
     </row>
@@ -5650,144 +5909,1019 @@
         <v>108</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="50">
+        <v>1510</v>
+      </c>
+      <c r="F18" s="51">
+        <v>1510</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
+        <v>44390</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>113</v>
       </c>
+      <c r="E19" s="50">
+        <v>3360</v>
+      </c>
+      <c r="F19" s="51">
+        <v>1200</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
+        <v>44390</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="50">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="51">
+        <v>1666.68</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="25">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
+        <v>44391</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="50">
+        <v>4042.5</v>
+      </c>
+      <c r="F21" s="51">
+        <v>1347.5</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="25">
+        <v>1347.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
+        <v>44392</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="50">
+        <v>4025</v>
+      </c>
+      <c r="F22" s="51">
+        <v>1341.68</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1341.68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
+        <v>44395</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="50">
+        <v>307</v>
+      </c>
+      <c r="F23" s="51">
+        <v>307</v>
+      </c>
+      <c r="G23" s="23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
+        <v>44395</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="50">
+        <v>470</v>
+      </c>
+      <c r="F24" s="51">
+        <v>470</v>
+      </c>
+      <c r="G24" s="23">
+        <v>1</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
+        <v>44397</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="50">
+        <v>361.2</v>
+      </c>
+      <c r="F25" s="51">
+        <v>361.2</v>
+      </c>
+      <c r="G25" s="23">
+        <v>1</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="19">
+        <v>44400</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="50">
+        <v>836</v>
+      </c>
+      <c r="F26" s="51">
+        <v>836</v>
+      </c>
+      <c r="G26" s="23">
+        <v>1</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="19">
+        <v>44400</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="50">
+        <v>323.55</v>
+      </c>
+      <c r="F27" s="51">
+        <v>323.55</v>
+      </c>
+      <c r="G27" s="23">
+        <v>1</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="19">
+        <v>44402</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="50">
+        <v>2700</v>
+      </c>
+      <c r="F28" s="51">
+        <v>2700</v>
+      </c>
+      <c r="G28" s="23">
+        <v>1</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
+        <v>44403</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="50">
+        <v>640</v>
+      </c>
+      <c r="F29" s="51">
+        <v>640</v>
+      </c>
+      <c r="G29" s="23">
+        <v>1</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
+        <v>44403</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="50">
+        <v>488</v>
+      </c>
+      <c r="F30" s="51">
+        <v>488</v>
+      </c>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
+        <v>44405</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="50">
+        <v>1800</v>
+      </c>
+      <c r="F31" s="51">
+        <v>1800</v>
+      </c>
+      <c r="G31" s="23">
+        <v>1</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
+        <v>44413</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="50">
+        <v>700</v>
+      </c>
+      <c r="F32" s="51">
+        <v>700</v>
+      </c>
+      <c r="G32" s="23">
+        <v>1</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25" t="str">
+        <f>IF(AND(E33="",F33=""),"",I11+E33-F33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29">
+        <f>SUM(E9:E32)</f>
+        <v>40752.6</v>
+      </c>
+      <c r="F34" s="30">
+        <f>SUM(F9:F32)</f>
+        <v>21881.91</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33">
+        <f>SUM(I9:I33)</f>
+        <v>7724.1600000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="38" t="str">
+        <f t="shared" ref="I35" si="0">IF(AND(E35="",F35=""),"",I34+E35-F35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="41"/>
+    </row>
+    <row r="37" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="41"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="45">
+        <f>SUM(333,F11,F13,F16,F19,F20,F21,F22,F25,F26,F28,F31,F32)</f>
+        <v>13417.41</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="41"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="49">
+        <f>SUM(333,F10,F12,F15,F14,F18,F23,F24,F17,F29,F30,F27)</f>
+        <v>8131.5</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="41"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="D37:F37"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I35:I43">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(I36="")=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I43">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(I37="")=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00226C24-FCAF-4203-9FAC-6D85CFFC273F}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>44396</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12">
+        <v>999</v>
+      </c>
+      <c r="F9" s="13">
+        <v>999</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>44401</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12">
+        <v>385</v>
+      </c>
+      <c r="F10" s="13">
+        <v>385</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>44284</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="12">
+        <v>423.35</v>
+      </c>
+      <c r="F11" s="13">
+        <v>423.35</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="16">
+        <v>423.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
+        <v>44329</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="50">
+        <v>3630</v>
+      </c>
+      <c r="F12" s="51">
+        <v>605</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
+        <v>44377</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="50">
+        <v>1520</v>
+      </c>
+      <c r="F13" s="51">
+        <v>1520</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
+        <v>44373</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="50">
+        <v>5394</v>
+      </c>
+      <c r="F14" s="51">
+        <v>899.95</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="25">
+        <v>899.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
+        <v>44390</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="50">
+        <v>3360</v>
+      </c>
+      <c r="F15" s="51">
+        <v>1200</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>44390</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="50">
+        <v>5000</v>
+      </c>
+      <c r="F16" s="51">
+        <v>1666.68</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="25">
+        <v>1666.68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
+        <v>44391</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="50">
+        <v>4042.5</v>
+      </c>
+      <c r="F17" s="51">
+        <v>1347.5</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="25">
+        <v>1347.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>44392</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="E18" s="50">
-        <v>3360</v>
+        <v>4025</v>
       </c>
       <c r="F18" s="51">
-        <v>1200</v>
+        <v>1341.68</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="I18" s="25">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25" t="str">
-        <f>IF(AND(E19="",F19=""),"",I11+E19-F19)</f>
+        <v>1341.68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
+        <v>44413</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="50">
+        <v>700</v>
+      </c>
+      <c r="F19" s="51">
+        <v>700</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25" t="str">
+        <f>IF(AND(E20="",F20=""),"",I11+E20-F20)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29">
-        <f>SUM(E9:E18)</f>
-        <v>18340.349999999999</v>
-      </c>
-      <c r="F20" s="30">
-        <f>SUM(F9:F18)</f>
-        <v>8181.3</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33">
-        <f>SUM(I9:I19)</f>
-        <v>3368.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="38" t="str">
-        <f t="shared" ref="I21" si="0">IF(AND(E21="",F21=""),"",I20+E21-F21)</f>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29">
+        <f>SUM(E9:E19)</f>
+        <v>29478.85</v>
+      </c>
+      <c r="F21" s="30">
+        <f>SUM(F9:F19)</f>
+        <v>11088.16</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33">
+        <f>SUM(I9:I20)</f>
+        <v>7484.1600000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="38" t="str">
+        <f t="shared" ref="I22" si="0">IF(AND(E22="",F22=""),"",I21+E22-F22)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="17"/>
       <c r="I23" s="41"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+    <row r="24" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="40"/>
       <c r="H24" s="17"/>
       <c r="I24" s="41"/>
     </row>
-    <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="45">
-        <f>SUM(333,F11,F13)</f>
-        <v>996.35</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="47"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="17"/>
       <c r="I25" s="41"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="40"/>
+    <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="45">
+        <f>SUM(333,F11,F15,F16,F17,F18,F19)</f>
+        <v>7012.21</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="17"/>
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="40"/>
       <c r="H27" s="17"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="49">
-        <f>SUM(333,F10,F12,F15,F14,F16,F17)</f>
-        <v>5750.95</v>
-      </c>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="17"/>
       <c r="E28" s="39"/>
       <c r="F28" s="40"/>
@@ -5795,9 +6929,14 @@
       <c r="H28" s="17"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+    <row r="29" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="49">
+        <f>SUM(333,F10,F12,F14,F13)</f>
+        <v>3742.95</v>
+      </c>
       <c r="D29" s="17"/>
       <c r="E29" s="39"/>
       <c r="F29" s="40"/>
@@ -5805,20 +6944,30 @@
       <c r="H29" s="17"/>
       <c r="I29" s="41"/>
     </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
-  <conditionalFormatting sqref="I21:I29">
+  <conditionalFormatting sqref="I22:I30">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(I22="")=TRUE</formula>
+      <formula>AND(I23="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I29">
+  <conditionalFormatting sqref="I22:I30">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(I23="")=TRUE</formula>
+      <formula>AND(I24="")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
